--- a/F21_estado_fisico.xlsx
+++ b/F21_estado_fisico.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="141">
   <si>
     <t>barrio</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>Árboles</t>
+  </si>
+  <si>
+    <t>institucion</t>
+  </si>
+  <si>
+    <t>corredor</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3512,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -3524,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4018,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -4030,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
